--- a/biology/Médecine/Fernand_Camus/Fernand_Camus.xlsx
+++ b/biology/Médecine/Fernand_Camus/Fernand_Camus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fernand Camus, né le 30 avril 1852 à Cholet (Maine-et-Loire) et mort le 28 mai 1922 à Paris 13e[1], est un médecin et botaniste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fernand Camus, né le 30 avril 1852 à Cholet (Maine-et-Loire) et mort le 28 mai 1922 à Paris 13e, est un médecin et botaniste français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Cholet[2], Fernand Antonin Camus est le fils de Jean Antoine Camus et de Marie Louise Charbonneau[3]. Il fait ses études secondaires à Angers puis ses études de médecine à Nantes. Médecin choletais, il est un remarquable botaniste, spécialiste de cryptogames et particulièrement des bryophytes. Il est intarissable sur le sujet allant jusqu'à délaisser son métier d'origine pour sa passion. Le Puy-Saint-Bonnet est un de ses lieux de prédilection pour de fructueuses collectes. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Cholet, Fernand Antonin Camus est le fils de Jean Antoine Camus et de Marie Louise Charbonneau. Il fait ses études secondaires à Angers puis ses études de médecine à Nantes. Médecin choletais, il est un remarquable botaniste, spécialiste de cryptogames et particulièrement des bryophytes. Il est intarissable sur le sujet allant jusqu'à délaisser son métier d'origine pour sa passion. Le Puy-Saint-Bonnet est un de ses lieux de prédilection pour de fructueuses collectes. 
 En 1875-1876, il est praticien à l’hôpital militaire de Rennes. En 1877, il travaille au laboratoire de la Sorbonne. En 1880, il est médecin au muséum de la Sorbonne et s'occupe de l'herbier d'Ernest Cosson. En 1875, il intègre la Société botanique de France ; il devient secrétaire-rédacteur des bulletins de la Société en 1908.
-En 1882, il fait don au musée municipal de Cholet, nouvellement créé dans sa ville natale par son collègue le docteur Léon Pissot, d'un herbier comportant une centaine de plantes. Celui-ci va s'enrichir peu à peu jusqu'à constituer une collection de près de 3 000 variétés (Herbier Camus)[4],[5], toujours conservé aujourd'hui par la Société des sciences, lettres et arts de Cholet et de sa région[2].
-En 1888, il est docteur-médecin et professeur à l'école de la rue Jean-Lantier, à Paris [6]
+En 1882, il fait don au musée municipal de Cholet, nouvellement créé dans sa ville natale par son collègue le docteur Léon Pissot, d'un herbier comportant une centaine de plantes. Celui-ci va s'enrichir peu à peu jusqu'à constituer une collection de près de 3 000 variétés (Herbier Camus) toujours conservé aujourd'hui par la Société des sciences, lettres et arts de Cholet et de sa région.
+En 1888, il est docteur-médecin et professeur à l'école de la rue Jean-Lantier, à Paris 
 </t>
         </is>
       </c>
@@ -547,10 +561,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Comme médecin
-Contribution à l’étude du zona de la face, Imp. Tolmer et Cie, 1880, 48 pages
-Comme botaniste
-Il a écrit quelques articles pour le bulletin de la SLA[7], dont:
+          <t>Comme médecin</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Contribution à l’étude du zona de la face, Imp. Tolmer et Cie, 1880, 48 pages</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fernand_Camus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fernand_Camus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Comme botaniste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il a écrit quelques articles pour le bulletin de la SLA, dont:
 Exposé des travaux des sections d'Histoire Naturelle (1884, pages 141 à 143) ;
 Sur les collections bryologiques du musée régional de Cholet : l'herbier des mousses et des hépatiques des environs et de l'arrondissement (1890, pages 497 à 508) ;
 Lettre à Monsieur le Président Léon Pissot (1890, page 515).
